--- a/Assets/Configs/Task.xlsx
+++ b/Assets/Configs/Task.xlsx
@@ -1,138 +1,441 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasee\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70977B0A-C75E-45BB-B246-67BAEA1CF305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2868" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{F1632178-70C3-442C-98F5-4F5443F6CBD0}"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
     <sheet name="Reward" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TaskID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PreviousID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TaskType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TargetID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TargetNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>新手引导1</t>
+  </si>
+  <si>
+    <t>第一个任务</t>
+  </si>
+  <si>
+    <t>新手引导2</t>
+  </si>
+  <si>
+    <t>测试任务链</t>
+  </si>
+  <si>
+    <t>新手引导1-1</t>
+  </si>
+  <si>
+    <t>测试多个新手任务</t>
+  </si>
+  <si>
+    <t>RewardID</t>
   </si>
   <si>
     <t>RewardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
   </si>
   <si>
     <t>Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手引导1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手引导2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试任务链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -140,9 +443,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -151,47 +696,91 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCAE2C43-99DF-455D-B944-999C62ED5C2B}" name="表1" displayName="表1" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{DCAE2C43-99DF-455D-B944-999C62ED5C2B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2B8ECFEA-495B-4D3B-A849-CD9D3E416437}" name="TaskID"/>
-    <tableColumn id="2" xr3:uid="{C350CF08-B279-4569-9503-0833CE56A7A6}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{25726A7F-A0F7-42A2-A601-A3EE21F9F8FB}" name="PreviousID"/>
-    <tableColumn id="4" xr3:uid="{E8F1F1B8-54E4-4466-9CB8-D09E01CFFCB2}" name="TaskType"/>
-    <tableColumn id="5" xr3:uid="{ABAB4FCF-F6BC-426F-9455-A85464AE3E24}" name="TargetID"/>
-    <tableColumn id="6" xr3:uid="{C3CD9E46-B5F2-4FC0-96FB-5E258A6AF753}" name="TargetNum"/>
-    <tableColumn id="7" xr3:uid="{1FF80F26-4DB3-48C2-9AEC-D8726BB9C7B5}" name="Reward"/>
-    <tableColumn id="8" xr3:uid="{8B5BB19E-B222-4A16-842D-821B141D7958}" name="Content"/>
+    <tableColumn id="1" name="TaskID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="PreviousID"/>
+    <tableColumn id="4" name="TaskType"/>
+    <tableColumn id="5" name="TargetID"/>
+    <tableColumn id="6" name="TargetNum"/>
+    <tableColumn id="7" name="Reward"/>
+    <tableColumn id="8" name="Content"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{198DC39A-C6FC-4A7D-B007-A8DC79627E7D}" name="表2" displayName="表2" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{198DC39A-C6FC-4A7D-B007-A8DC79627E7D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{22F830A9-8A2A-4404-8D16-95BABCDAA2C6}" name="RewardID"/>
-    <tableColumn id="2" xr3:uid="{60ADD242-D2E8-4623-91B1-C062AB8BCDBC}" name="RewardType"/>
-    <tableColumn id="3" xr3:uid="{A1010CE3-ADBA-4703-B7DD-BC035351B846}" name="ItemID"/>
-    <tableColumn id="4" xr3:uid="{F4C743AD-B6CD-4BEE-8333-DF17BD58EF5A}" name="Count"/>
+    <tableColumn id="1" name="RewardID"/>
+    <tableColumn id="2" name="RewardType"/>
+    <tableColumn id="3" name="ItemID"/>
+    <tableColumn id="4" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -240,7 +829,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -273,26 +862,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -325,23 +897,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,35 +1038,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE247438-9790-41F5-9761-BAFFCD84E70B}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="13.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="9.77777777777778" customWidth="1"/>
+    <col min="8" max="8" width="27.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,15 +1084,15 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -560,15 +1110,15 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -586,12 +1136,38 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -599,35 +1175,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D5969D-6EC6-4270-9ADE-0511E3F5BFDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="9.11111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -641,7 +1218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -656,8 +1233,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Assets/Configs/Task.xlsx
+++ b/Assets/Configs/Task.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>TaskID</t>
   </si>
@@ -44,10 +44,19 @@
     <t>新手引导1</t>
   </si>
   <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
     <t>第一个任务</t>
   </si>
   <si>
     <t>新手引导2</t>
+  </si>
+  <si>
+    <t>1,</t>
   </si>
   <si>
     <t>测试任务链</t>
@@ -81,14 +90,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,48 +548,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,97 +602,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1049,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1100,17 +1102,17 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1118,7 +1120,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1126,17 +1128,17 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1144,7 +1146,7 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -1152,17 +1154,17 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1192,16 +1194,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Assets/Configs/Task.xlsx
+++ b/Assets/Configs/Task.xlsx
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1123,7 +1123,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D3">
         <v>0</v>

--- a/Assets/Configs/Task.xlsx
+++ b/Assets/Configs/Task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12AA503-4856-4BD1-9CBA-2E61AA4848CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BCB7A7-20E7-4DFF-B135-9022B026B8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7308" yWindow="984" windowWidth="16152" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>TaskID</t>
   </si>
@@ -47,59 +47,55 @@
     <t>Content</t>
   </si>
   <si>
-    <t>新手引导1</t>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>建造民居</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>铺设道路</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>开垦农田</t>
+  </si>
+  <si>
+    <t>RewardID</t>
+  </si>
+  <si>
+    <t>RewardType</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
   <si>
     <t>0,</t>
   </si>
   <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>第一个任务</t>
-  </si>
-  <si>
-    <t>新手引导2</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>测试任务链</t>
-  </si>
-  <si>
-    <t>新手引导1-1</t>
-  </si>
-  <si>
-    <t>测试多个新手任务</t>
-  </si>
-  <si>
-    <t>RewardID</t>
-  </si>
-  <si>
-    <t>RewardType</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>100,</t>
   </si>
   <si>
     <t>0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺设两个道路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造一个id=0民居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -115,15 +111,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -156,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -512,7 +508,7 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -520,17 +516,17 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -544,19 +540,19 @@
         <v>1000</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,29 +560,29 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>1001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -598,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -611,16 +607,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,14 +641,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Assets/Configs/Task.xlsx
+++ b/Assets/Configs/Task.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BCB7A7-20E7-4DFF-B135-9022B026B8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7308" yWindow="984" windowWidth="16152" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -47,10 +41,19 @@
     <t>Content</t>
   </si>
   <si>
+    <t>建造民居</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
     <t>1,</t>
   </si>
   <si>
-    <t>建造民居</t>
+    <t>建造一个民居02</t>
+  </si>
+  <si>
+    <t>铺设道路</t>
   </si>
   <si>
     <t>7,</t>
@@ -59,15 +62,15 @@
     <t>2,</t>
   </si>
   <si>
-    <t>铺设道路</t>
+    <t>铺设两个道路</t>
+  </si>
+  <si>
+    <t>开垦农田</t>
   </si>
   <si>
     <t>5,</t>
   </si>
   <si>
-    <t>开垦农田</t>
-  </si>
-  <si>
     <t>RewardID</t>
   </si>
   <si>
@@ -84,25 +87,19 @@
   </si>
   <si>
     <t>100,</t>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺设两个道路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造一个id=0民居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,27 +111,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -142,9 +461,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -156,47 +717,91 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TaskID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PreviousID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TaskType"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TargetID"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TargetNum"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Reward"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
+    <tableColumn id="1" name="TaskID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="PreviousID"/>
+    <tableColumn id="4" name="TaskType"/>
+    <tableColumn id="5" name="TargetID"/>
+    <tableColumn id="6" name="TargetNum"/>
+    <tableColumn id="7" name="Reward"/>
+    <tableColumn id="8" name="Content"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="RewardID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="RewardType"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ItemID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Count"/>
+    <tableColumn id="1" name="RewardID"/>
+    <tableColumn id="2" name="RewardType"/>
+    <tableColumn id="3" name="ItemID"/>
+    <tableColumn id="4" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -454,30 +1059,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="13.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="9.77777777777778" customWidth="1"/>
+    <col min="8" max="8" width="27.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,12 +1108,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -517,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -543,24 +1148,24 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1001</v>
@@ -569,21 +1174,21 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -591,35 +1196,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="9.11111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -627,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -641,15 +1247,15 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Assets/Configs/Task.xlsx
+++ b/Assets/Configs/Task.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>TaskID</t>
   </si>
@@ -56,7 +56,7 @@
     <t>铺设道路</t>
   </si>
   <si>
-    <t>7,</t>
+    <t>4,</t>
   </si>
   <si>
     <t>2,</t>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>开垦农田</t>
-  </si>
-  <si>
-    <t>5,</t>
   </si>
   <si>
     <t>RewardID</t>
@@ -99,14 +96,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,33 +569,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,97 +608,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -713,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,7 +1058,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1174,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1213,16 +1203,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1233,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
